--- a/import_test.xlsx
+++ b/import_test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Last name</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>Trushin</t>
   </si>
   <si>
     <t>Anton</t>
@@ -312,15 +315,17 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
